--- a/doc/ue_ios_metallib.xlsx
+++ b/doc/ue_ios_metallib.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82EB8F-192A-4BF1-A94A-68E8F1D8D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FFF35-45CF-4D81-9B08-6C879E402710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="加载实现" sheetId="2" r:id="rId2"/>
+    <sheet name="COOK" sheetId="3" r:id="rId3"/>
+    <sheet name="IOS打包拷贝" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <t>void FShaderCodeLibrary::InitForRuntime(EShaderPlatform ShaderPlatform)</t>
   </si>
@@ -153,6 +156,301 @@
   <si>
     <t>按照文件内容，判断有几个对应的metallib文件，挨个加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK Global的Metalmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TCHAR* GlobalShaderLibName = TEXT("Global");</t>
+  </si>
+  <si>
+    <t>SaveShaderLibrary(TargetPlatform, GlobalShaderLibName);</t>
+  </si>
+  <si>
+    <t>FShaderLibraryCooker::EndCookingLibrary(ActualName);</t>
+  </si>
+  <si>
+    <t>全局的名字，就是GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK非全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString LibraryName = !IsCookingDLC() ? FApp::GetProjectName() : CookByTheBookOptions-&gt;DlcName;</t>
+  </si>
+  <si>
+    <t>项目的名字命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// now that we have the asset registry and cooking open order, we have enough information to split the shader library</t>
+  </si>
+  <si>
+    <t>// into parts for each chunk and (possibly) lay out the code in accordance with the file order</t>
+  </si>
+  <si>
+    <t>if (bCacheShaderLibraries &amp;&amp; PackagingSettings-&gt;bShareMaterialShaderCode)</t>
+  </si>
+  <si>
+    <t>// Save shader code map</t>
+  </si>
+  <si>
+    <t>if (LibraryName.Len() &gt; 0)</t>
+  </si>
+  <si>
+    <t>CreatePipelineCache(TargetPlatform, LibraryName);</t>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::CookByTheBookFinished()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 UCookOnTheFlyServer::TickCookOnTheSide(const float TimeSlice, uint32 &amp;CookedPackageCount, ECookTickFlags TickFlags)</t>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::SaveAndCloseGlobalShaderLibrary()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
+  </si>
+  <si>
+    <t>SaveShaderLibrary(TargetPlatform, LibraryName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::SaveShaderLibrary(const ITargetPlatform* TargetPlatform, FString const&amp; Name)</t>
+  </si>
+  <si>
+    <t>bool PackageNativeShaderLibrary(const FString&amp; ShaderCodeDir, TArray&lt;FString&gt;* OutputFilenames = nullptr)</t>
+  </si>
+  <si>
+    <t>FString IntermediateFormatPath = GetShaderDebugFolder(FPaths::ProjectSavedDir() / TEXT("Shaders") / FormatName.ToString(), LibraryName, FormatName);</t>
+  </si>
+  <si>
+    <t>FString TempPath = IntermediateFormatPath / TEXT("NativeLibrary");</t>
+  </si>
+  <si>
+    <t>IFileManager::Get().MakeDirectory(*TempPath, true);</t>
+  </si>
+  <si>
+    <t>IFileManager::Get().MakeDirectory(*ShaderCodeDir, true);</t>
+  </si>
+  <si>
+    <t>EShaderPlatform Platform = ShaderFormatToLegacyShaderPlatform(FormatName);</t>
+  </si>
+  <si>
+    <t>const bool bOK = Format-&gt;CreateShaderArchive(LibraryName, FormatName, TempPath, ShaderCodeDir, IntermediateFormatPath, SerializedShaders, ShaderCode, OutputFilenames);</t>
+  </si>
+  <si>
+    <t>if (!FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(TargetPlatform, Name, ShaderCodeDir, MetaDataPath, PlatformSCLCSVPaths, ErrorString))</t>
+  </si>
+  <si>
+    <t>bool FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(const ITargetPlatform* TargetPlatform, FString const&amp; Name, FString const&amp; SandboxDestinationPath, FString const&amp; SandboxMetadataPath, TArray&lt;FString&gt;&amp; PlatformSCLCSVPaths, FString&amp; OutErrorMessage)</t>
+  </si>
+  <si>
+    <t>bool bSaved = FShaderLibrariesCollection::Impl-&gt;SaveShaderCode(ShaderCodeDir, MetaDataPath, ShaderFormats, PlatformSCLCSVPaths);</t>
+  </si>
+  <si>
+    <t>bool SaveShaderCode(const FString&amp; ShaderCodeDir, const FString&amp; MetaOutputDir, const TArray&lt;FName&gt;&amp; ShaderFormats, TArray&lt;FString&gt;&amp; OutSCLCSVPath)</t>
+  </si>
+  <si>
+    <t>bOk = CodeArchive-&gt;PackageNativeShaderLibrary(ShaderCodeDir) &amp;&amp; bOk;</t>
+  </si>
+  <si>
+    <t>virtual bool CreateShaderArchive(FString const&amp; LibraryName, FName Format, const FString&amp; WorkingDirectory, const FString&amp; OutputDir,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format=NAME_SF_METAL，就是字符串：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FName NAME_SF_METAL(TEXT("SF_METAL"))</t>
+  </si>
+  <si>
+    <t>先生成对应的metallib文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString LibraryPlatformName = FString::Printf(TEXT("%s_%s"), *LibraryName, *Format.GetPlainNameString());</t>
+  </si>
+  <si>
+    <t>名字前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX_sf_metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (uint32 Index = 0; Index &lt; (uint32)SubLibraries.Num(); Index++)</t>
+  </si>
+  <si>
+    <t>TSet&lt;uint64&gt;&amp; PartialShaders = SubLibraries[Index];</t>
+  </si>
+  <si>
+    <t>FString LibraryPath = (OutputDir / LibraryPlatformName) + FString::Printf(TEXT(".%d"), Index) + FMetalCompilerToolchain::MetalLibraryExtension;</t>
+  </si>
+  <si>
+    <t>if (OutputFiles)</t>
+  </si>
+  <si>
+    <t>OutputFiles-&gt;Add(LibraryPath);</t>
+  </si>
+  <si>
+    <t>// Enqueue the library compilation as a task so we can go wide</t>
+  </si>
+  <si>
+    <t>FGraphEventRef CompletionFence = FFunctionGraphTask::CreateAndDispatchWhenReady([Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir, &amp;CompiledLibraries]()</t>
+  </si>
+  <si>
+    <t>if (FinalizeLibrary_Metal(Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir))</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedIncrement(&amp;CompiledLibraries);</t>
+  </si>
+  <si>
+    <t>}, TStatId(), NULL, ENamedThreads::AnyThread);</t>
+  </si>
+  <si>
+    <t>Tasks.Add(CompletionFence);</t>
+  </si>
+  <si>
+    <t>挨个生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX_sf_metal.0.metallib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Remap all the non-ufs files if not using a PAK file</t>
+  </si>
+  <si>
+    <t>if (Params.HasIterateSharedCookedBuild)</t>
+  </si>
+  <si>
+    <t>// Shared NonUFS files are staged in their remapped location, and may be duplicated in the to-stage list.</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;StagedFileReference, FileReference&gt; NonUFSToStage = new Dictionary&lt;StagedFileReference, FileReference&gt;();</t>
+  </si>
+  <si>
+    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; StagedFilePair in SC.FilesToStage.NonUFSFiles)</t>
+  </si>
+  <si>
+    <t>NonUFSToStage[SC.StageTargetPlatform.Remap(StagedFilePair.Key)] = StagedFilePair.Value;</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles = NonUFSToStage;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles = SC.FilesToStage.NonUFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
+  </si>
+  <si>
+    <t>if (!Params.UsePak(SC.StageTargetPlatform))</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.UFSFiles = SC.FilesToStage.UFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
+  </si>
+  <si>
+    <t>// Merge all the NonUFS system files back into the NonUFS list. Deployment is currently only set up to read from that.</t>
+  </si>
+  <si>
+    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; Pair in SC.FilesToStage.NonUFSSystemFiles)</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles[Pair.Key] = Pair.Value;</t>
+  </si>
+  <si>
+    <t>// Make sure there are no restricted folders in the output</t>
+  </si>
+  <si>
+    <t>HashSet&lt;StagedFileReference&gt; RestrictedFiles = new HashSet&lt;StagedFileReference&gt;();</t>
+  </si>
+  <si>
+    <t>foreach (string RestrictedName in SC.RestrictedFolderNames)</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.UFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSDebugFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.CrashReporterUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.RemoveWhere(RestrictedFile =&gt; SC.WhitelistDirectories.Any(WhitelistDirectory =&gt; RestrictedFile.Directory.IsUnderDirectory(WhitelistDirectory)));</t>
+  </si>
+  <si>
+    <t>// Stage any *.metallib files as NonUFS.</t>
+  </si>
+  <si>
+    <t>// Get the final output directory for cooked data</t>
+  </si>
+  <si>
+    <t>DirectoryReference CookOutputDir;</t>
+  </si>
+  <si>
+    <t>if (!String.IsNullOrEmpty(Params.CookOutputDir))</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(new DirectoryReference(Params.CookOutputDir), SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>else if (Params.CookInEditor)</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "EditorCooked", SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "Cooked", SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>if (DirectoryReference.Exists(CookOutputDir))</t>
+  </si>
+  <si>
+    <t>List&lt;FileReference&gt; CookedFiles = DirectoryReference.EnumerateFiles(CookOutputDir, "*.metallib", SearchOption.AllDirectories).ToList();</t>
+  </si>
+  <si>
+    <t>foreach (FileReference CookedFile in CookedFiles)</t>
+  </si>
+  <si>
+    <t>SC.StageFile(StagedFileType.NonUFS, CookedFile, new StagedFileReference(CookedFile.MakeRelativeTo(CookOutputDir)));</t>
+  </si>
+  <si>
+    <t>收集所有的metallib文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非UFS文件集中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public override void GetFilesToDeployOrStage(ProjectParams Params, DeploymentContext SC)</t>
   </si>
 </sst>
 </file>
@@ -688,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D988122D-E9DF-46B7-9D16-8184EFAF6ACE}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -791,4 +1089,698 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B59BC9-BFEA-4CED-AD70-5026EE47AA65}">
+  <dimension ref="A2:R84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B7D6F-D48E-440C-9D4E-29AAEA362A67}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695943A-F989-4D6C-A788-0ACD8BE8448A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_ios_metallib.xlsx
+++ b/doc/ue_ios_metallib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FFF35-45CF-4D81-9B08-6C879E402710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B19FC-CC9A-4D42-B219-8D4E54131D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
   <si>
     <t>void FShaderCodeLibrary::InitForRuntime(EShaderPlatform ShaderPlatform)</t>
   </si>
@@ -143,314 +143,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加载实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先加载对应的metalmap文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照文件内容，判断有几个对应的metallib文件，挨个加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK Global的Metalmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TCHAR* GlobalShaderLibName = TEXT("Global");</t>
+  </si>
+  <si>
+    <t>SaveShaderLibrary(TargetPlatform, GlobalShaderLibName);</t>
+  </si>
+  <si>
+    <t>FShaderLibraryCooker::EndCookingLibrary(ActualName);</t>
+  </si>
+  <si>
+    <t>全局的名字，就是GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK非全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString LibraryName = !IsCookingDLC() ? FApp::GetProjectName() : CookByTheBookOptions-&gt;DlcName;</t>
+  </si>
+  <si>
+    <t>项目的名字命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// now that we have the asset registry and cooking open order, we have enough information to split the shader library</t>
+  </si>
+  <si>
+    <t>// into parts for each chunk and (possibly) lay out the code in accordance with the file order</t>
+  </si>
+  <si>
+    <t>if (bCacheShaderLibraries &amp;&amp; PackagingSettings-&gt;bShareMaterialShaderCode)</t>
+  </si>
+  <si>
+    <t>// Save shader code map</t>
+  </si>
+  <si>
+    <t>if (LibraryName.Len() &gt; 0)</t>
+  </si>
+  <si>
+    <t>CreatePipelineCache(TargetPlatform, LibraryName);</t>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::CookByTheBookFinished()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 UCookOnTheFlyServer::TickCookOnTheSide(const float TimeSlice, uint32 &amp;CookedPackageCount, ECookTickFlags TickFlags)</t>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::SaveAndCloseGlobalShaderLibrary()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
+  </si>
+  <si>
+    <t>SaveShaderLibrary(TargetPlatform, LibraryName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::SaveShaderLibrary(const ITargetPlatform* TargetPlatform, FString const&amp; Name)</t>
+  </si>
+  <si>
+    <t>bool PackageNativeShaderLibrary(const FString&amp; ShaderCodeDir, TArray&lt;FString&gt;* OutputFilenames = nullptr)</t>
+  </si>
+  <si>
+    <t>FString IntermediateFormatPath = GetShaderDebugFolder(FPaths::ProjectSavedDir() / TEXT("Shaders") / FormatName.ToString(), LibraryName, FormatName);</t>
+  </si>
+  <si>
+    <t>FString TempPath = IntermediateFormatPath / TEXT("NativeLibrary");</t>
+  </si>
+  <si>
+    <t>IFileManager::Get().MakeDirectory(*TempPath, true);</t>
+  </si>
+  <si>
+    <t>IFileManager::Get().MakeDirectory(*ShaderCodeDir, true);</t>
+  </si>
+  <si>
+    <t>EShaderPlatform Platform = ShaderFormatToLegacyShaderPlatform(FormatName);</t>
+  </si>
+  <si>
+    <t>const bool bOK = Format-&gt;CreateShaderArchive(LibraryName, FormatName, TempPath, ShaderCodeDir, IntermediateFormatPath, SerializedShaders, ShaderCode, OutputFilenames);</t>
+  </si>
+  <si>
+    <t>if (!FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(TargetPlatform, Name, ShaderCodeDir, MetaDataPath, PlatformSCLCSVPaths, ErrorString))</t>
+  </si>
+  <si>
+    <t>bool FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(const ITargetPlatform* TargetPlatform, FString const&amp; Name, FString const&amp; SandboxDestinationPath, FString const&amp; SandboxMetadataPath, TArray&lt;FString&gt;&amp; PlatformSCLCSVPaths, FString&amp; OutErrorMessage)</t>
+  </si>
+  <si>
+    <t>bool bSaved = FShaderLibrariesCollection::Impl-&gt;SaveShaderCode(ShaderCodeDir, MetaDataPath, ShaderFormats, PlatformSCLCSVPaths);</t>
+  </si>
+  <si>
+    <t>bool SaveShaderCode(const FString&amp; ShaderCodeDir, const FString&amp; MetaOutputDir, const TArray&lt;FName&gt;&amp; ShaderFormats, TArray&lt;FString&gt;&amp; OutSCLCSVPath)</t>
+  </si>
+  <si>
+    <t>bOk = CodeArchive-&gt;PackageNativeShaderLibrary(ShaderCodeDir) &amp;&amp; bOk;</t>
+  </si>
+  <si>
+    <t>virtual bool CreateShaderArchive(FString const&amp; LibraryName, FName Format, const FString&amp; WorkingDirectory, const FString&amp; OutputDir,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format=NAME_SF_METAL，就是字符串：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FName NAME_SF_METAL(TEXT("SF_METAL"))</t>
+  </si>
+  <si>
+    <t>先生成对应的metallib文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString LibraryPlatformName = FString::Printf(TEXT("%s_%s"), *LibraryName, *Format.GetPlainNameString());</t>
+  </si>
+  <si>
+    <t>名字前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX_sf_metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (uint32 Index = 0; Index &lt; (uint32)SubLibraries.Num(); Index++)</t>
+  </si>
+  <si>
+    <t>TSet&lt;uint64&gt;&amp; PartialShaders = SubLibraries[Index];</t>
+  </si>
+  <si>
+    <t>FString LibraryPath = (OutputDir / LibraryPlatformName) + FString::Printf(TEXT(".%d"), Index) + FMetalCompilerToolchain::MetalLibraryExtension;</t>
+  </si>
+  <si>
+    <t>if (OutputFiles)</t>
+  </si>
+  <si>
+    <t>OutputFiles-&gt;Add(LibraryPath);</t>
+  </si>
+  <si>
+    <t>// Enqueue the library compilation as a task so we can go wide</t>
+  </si>
+  <si>
+    <t>FGraphEventRef CompletionFence = FFunctionGraphTask::CreateAndDispatchWhenReady([Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir, &amp;CompiledLibraries]()</t>
+  </si>
+  <si>
+    <t>if (FinalizeLibrary_Metal(Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir))</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedIncrement(&amp;CompiledLibraries);</t>
+  </si>
+  <si>
+    <t>}, TStatId(), NULL, ENamedThreads::AnyThread);</t>
+  </si>
+  <si>
+    <t>Tasks.Add(CompletionFence);</t>
+  </si>
+  <si>
+    <t>挨个生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX_sf_metal.0.metallib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Remap all the non-ufs files if not using a PAK file</t>
+  </si>
+  <si>
+    <t>if (Params.HasIterateSharedCookedBuild)</t>
+  </si>
+  <si>
+    <t>// Shared NonUFS files are staged in their remapped location, and may be duplicated in the to-stage list.</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;StagedFileReference, FileReference&gt; NonUFSToStage = new Dictionary&lt;StagedFileReference, FileReference&gt;();</t>
+  </si>
+  <si>
+    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; StagedFilePair in SC.FilesToStage.NonUFSFiles)</t>
+  </si>
+  <si>
+    <t>NonUFSToStage[SC.StageTargetPlatform.Remap(StagedFilePair.Key)] = StagedFilePair.Value;</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles = NonUFSToStage;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles = SC.FilesToStage.NonUFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
+  </si>
+  <si>
+    <t>if (!Params.UsePak(SC.StageTargetPlatform))</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.UFSFiles = SC.FilesToStage.UFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
+  </si>
+  <si>
+    <t>// Merge all the NonUFS system files back into the NonUFS list. Deployment is currently only set up to read from that.</t>
+  </si>
+  <si>
+    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; Pair in SC.FilesToStage.NonUFSSystemFiles)</t>
+  </si>
+  <si>
+    <t>SC.FilesToStage.NonUFSFiles[Pair.Key] = Pair.Value;</t>
+  </si>
+  <si>
+    <t>// Make sure there are no restricted folders in the output</t>
+  </si>
+  <si>
+    <t>HashSet&lt;StagedFileReference&gt; RestrictedFiles = new HashSet&lt;StagedFileReference&gt;();</t>
+  </si>
+  <si>
+    <t>foreach (string RestrictedName in SC.RestrictedFolderNames)</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.UFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSDebugFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.UnionWith(SC.CrashReporterUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
+  </si>
+  <si>
+    <t>RestrictedFiles.RemoveWhere(RestrictedFile =&gt; SC.WhitelistDirectories.Any(WhitelistDirectory =&gt; RestrictedFile.Directory.IsUnderDirectory(WhitelistDirectory)));</t>
+  </si>
+  <si>
+    <t>// Stage any *.metallib files as NonUFS.</t>
+  </si>
+  <si>
+    <t>// Get the final output directory for cooked data</t>
+  </si>
+  <si>
+    <t>DirectoryReference CookOutputDir;</t>
+  </si>
+  <si>
+    <t>if (!String.IsNullOrEmpty(Params.CookOutputDir))</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(new DirectoryReference(Params.CookOutputDir), SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>else if (Params.CookInEditor)</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "EditorCooked", SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "Cooked", SC.CookPlatform);</t>
+  </si>
+  <si>
+    <t>if (DirectoryReference.Exists(CookOutputDir))</t>
+  </si>
+  <si>
+    <t>List&lt;FileReference&gt; CookedFiles = DirectoryReference.EnumerateFiles(CookOutputDir, "*.metallib", SearchOption.AllDirectories).ToList();</t>
+  </si>
+  <si>
+    <t>foreach (FileReference CookedFile in CookedFiles)</t>
+  </si>
+  <si>
+    <t>SC.StageFile(StagedFileType.NonUFS, CookedFile, new StagedFileReference(CookedFile.MakeRelativeTo(CookOutputDir)));</t>
+  </si>
+  <si>
+    <t>收集所有的metallib文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非UFS文件集中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public override void GetFilesToDeployOrStage(ProjectParams Params, DeploymentContext SC)</t>
+  </si>
+  <si>
     <t>FRHIShaderLibraryRef FMetalDynamicRHI::RHICreateShaderLibrary(EShaderPlatform Platform, FString const&amp; FilePath, FString const&amp; Name)</t>
-  </si>
-  <si>
-    <t>加载实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先加载对应的metalmap文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照文件内容，判断有几个对应的metallib文件，挨个加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COOK Global的Metalmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const TCHAR* GlobalShaderLibName = TEXT("Global");</t>
-  </si>
-  <si>
-    <t>SaveShaderLibrary(TargetPlatform, GlobalShaderLibName);</t>
-  </si>
-  <si>
-    <t>FShaderLibraryCooker::EndCookingLibrary(ActualName);</t>
-  </si>
-  <si>
-    <t>全局的名字，就是GLOBAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COOK非全局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString LibraryName = !IsCookingDLC() ? FApp::GetProjectName() : CookByTheBookOptions-&gt;DlcName;</t>
-  </si>
-  <si>
-    <t>项目的名字命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// now that we have the asset registry and cooking open order, we have enough information to split the shader library</t>
-  </si>
-  <si>
-    <t>// into parts for each chunk and (possibly) lay out the code in accordance with the file order</t>
-  </si>
-  <si>
-    <t>if (bCacheShaderLibraries &amp;&amp; PackagingSettings-&gt;bShareMaterialShaderCode)</t>
-  </si>
-  <si>
-    <t>// Save shader code map</t>
-  </si>
-  <si>
-    <t>if (LibraryName.Len() &gt; 0)</t>
-  </si>
-  <si>
-    <t>CreatePipelineCache(TargetPlatform, LibraryName);</t>
-  </si>
-  <si>
-    <t>生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::CookByTheBookFinished()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32 UCookOnTheFlyServer::TickCookOnTheSide(const float TimeSlice, uint32 &amp;CookedPackageCount, ECookTickFlags TickFlags)</t>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::SaveAndCloseGlobalShaderLibrary()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
-  </si>
-  <si>
-    <t>SaveShaderLibrary(TargetPlatform, LibraryName);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::SaveShaderLibrary(const ITargetPlatform* TargetPlatform, FString const&amp; Name)</t>
-  </si>
-  <si>
-    <t>bool PackageNativeShaderLibrary(const FString&amp; ShaderCodeDir, TArray&lt;FString&gt;* OutputFilenames = nullptr)</t>
-  </si>
-  <si>
-    <t>FString IntermediateFormatPath = GetShaderDebugFolder(FPaths::ProjectSavedDir() / TEXT("Shaders") / FormatName.ToString(), LibraryName, FormatName);</t>
-  </si>
-  <si>
-    <t>FString TempPath = IntermediateFormatPath / TEXT("NativeLibrary");</t>
-  </si>
-  <si>
-    <t>IFileManager::Get().MakeDirectory(*TempPath, true);</t>
-  </si>
-  <si>
-    <t>IFileManager::Get().MakeDirectory(*ShaderCodeDir, true);</t>
-  </si>
-  <si>
-    <t>EShaderPlatform Platform = ShaderFormatToLegacyShaderPlatform(FormatName);</t>
-  </si>
-  <si>
-    <t>const bool bOK = Format-&gt;CreateShaderArchive(LibraryName, FormatName, TempPath, ShaderCodeDir, IntermediateFormatPath, SerializedShaders, ShaderCode, OutputFilenames);</t>
-  </si>
-  <si>
-    <t>if (!FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(TargetPlatform, Name, ShaderCodeDir, MetaDataPath, PlatformSCLCSVPaths, ErrorString))</t>
-  </si>
-  <si>
-    <t>bool FShaderLibraryCooker::SaveShaderLibraryWithoutChunking(const ITargetPlatform* TargetPlatform, FString const&amp; Name, FString const&amp; SandboxDestinationPath, FString const&amp; SandboxMetadataPath, TArray&lt;FString&gt;&amp; PlatformSCLCSVPaths, FString&amp; OutErrorMessage)</t>
-  </si>
-  <si>
-    <t>bool bSaved = FShaderLibrariesCollection::Impl-&gt;SaveShaderCode(ShaderCodeDir, MetaDataPath, ShaderFormats, PlatformSCLCSVPaths);</t>
-  </si>
-  <si>
-    <t>bool SaveShaderCode(const FString&amp; ShaderCodeDir, const FString&amp; MetaOutputDir, const TArray&lt;FName&gt;&amp; ShaderFormats, TArray&lt;FString&gt;&amp; OutSCLCSVPath)</t>
-  </si>
-  <si>
-    <t>bOk = CodeArchive-&gt;PackageNativeShaderLibrary(ShaderCodeDir) &amp;&amp; bOk;</t>
-  </si>
-  <si>
-    <t>virtual bool CreateShaderArchive(FString const&amp; LibraryName, FName Format, const FString&amp; WorkingDirectory, const FString&amp; OutputDir,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Format=NAME_SF_METAL，就是字符串：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static FName NAME_SF_METAL(TEXT("SF_METAL"))</t>
-  </si>
-  <si>
-    <t>先生成对应的metallib文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString LibraryPlatformName = FString::Printf(TEXT("%s_%s"), *LibraryName, *Format.GetPlainNameString());</t>
-  </si>
-  <si>
-    <t>名字前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX_sf_metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (uint32 Index = 0; Index &lt; (uint32)SubLibraries.Num(); Index++)</t>
-  </si>
-  <si>
-    <t>TSet&lt;uint64&gt;&amp; PartialShaders = SubLibraries[Index];</t>
-  </si>
-  <si>
-    <t>FString LibraryPath = (OutputDir / LibraryPlatformName) + FString::Printf(TEXT(".%d"), Index) + FMetalCompilerToolchain::MetalLibraryExtension;</t>
-  </si>
-  <si>
-    <t>if (OutputFiles)</t>
-  </si>
-  <si>
-    <t>OutputFiles-&gt;Add(LibraryPath);</t>
-  </si>
-  <si>
-    <t>// Enqueue the library compilation as a task so we can go wide</t>
-  </si>
-  <si>
-    <t>FGraphEventRef CompletionFence = FFunctionGraphTask::CreateAndDispatchWhenReady([Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir, &amp;CompiledLibraries]()</t>
-  </si>
-  <si>
-    <t>if (FinalizeLibrary_Metal(Format, ArchivePath, LibraryPath, PartialShaders, DebugOutputDir))</t>
-  </si>
-  <si>
-    <t>FPlatformAtomics::InterlockedIncrement(&amp;CompiledLibraries);</t>
-  </si>
-  <si>
-    <t>}, TStatId(), NULL, ENamedThreads::AnyThread);</t>
-  </si>
-  <si>
-    <t>Tasks.Add(CompletionFence);</t>
-  </si>
-  <si>
-    <t>挨个生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX_sf_metal.0.metallib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Remap all the non-ufs files if not using a PAK file</t>
-  </si>
-  <si>
-    <t>if (Params.HasIterateSharedCookedBuild)</t>
-  </si>
-  <si>
-    <t>// Shared NonUFS files are staged in their remapped location, and may be duplicated in the to-stage list.</t>
-  </si>
-  <si>
-    <t>Dictionary&lt;StagedFileReference, FileReference&gt; NonUFSToStage = new Dictionary&lt;StagedFileReference, FileReference&gt;();</t>
-  </si>
-  <si>
-    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; StagedFilePair in SC.FilesToStage.NonUFSFiles)</t>
-  </si>
-  <si>
-    <t>NonUFSToStage[SC.StageTargetPlatform.Remap(StagedFilePair.Key)] = StagedFilePair.Value;</t>
-  </si>
-  <si>
-    <t>SC.FilesToStage.NonUFSFiles = NonUFSToStage;</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>SC.FilesToStage.NonUFSFiles = SC.FilesToStage.NonUFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
-  </si>
-  <si>
-    <t>if (!Params.UsePak(SC.StageTargetPlatform))</t>
-  </si>
-  <si>
-    <t>SC.FilesToStage.UFSFiles = SC.FilesToStage.UFSFiles.ToDictionary(x =&gt; SC.StageTargetPlatform.Remap(x.Key), x =&gt; x.Value);</t>
-  </si>
-  <si>
-    <t>// Merge all the NonUFS system files back into the NonUFS list. Deployment is currently only set up to read from that.</t>
-  </si>
-  <si>
-    <t>foreach (KeyValuePair&lt;StagedFileReference, FileReference&gt; Pair in SC.FilesToStage.NonUFSSystemFiles)</t>
-  </si>
-  <si>
-    <t>SC.FilesToStage.NonUFSFiles[Pair.Key] = Pair.Value;</t>
-  </si>
-  <si>
-    <t>// Make sure there are no restricted folders in the output</t>
-  </si>
-  <si>
-    <t>HashSet&lt;StagedFileReference&gt; RestrictedFiles = new HashSet&lt;StagedFileReference&gt;();</t>
-  </si>
-  <si>
-    <t>foreach (string RestrictedName in SC.RestrictedFolderNames)</t>
-  </si>
-  <si>
-    <t>RestrictedFiles.UnionWith(SC.FilesToStage.UFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
-  </si>
-  <si>
-    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
-  </si>
-  <si>
-    <t>RestrictedFiles.UnionWith(SC.FilesToStage.NonUFSDebugFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
-  </si>
-  <si>
-    <t>RestrictedFiles.UnionWith(SC.CrashReporterUFSFiles.Keys.Where(x =&gt; x.ContainsName(RestrictedName)));</t>
-  </si>
-  <si>
-    <t>RestrictedFiles.RemoveWhere(RestrictedFile =&gt; SC.WhitelistDirectories.Any(WhitelistDirectory =&gt; RestrictedFile.Directory.IsUnderDirectory(WhitelistDirectory)));</t>
-  </si>
-  <si>
-    <t>// Stage any *.metallib files as NonUFS.</t>
-  </si>
-  <si>
-    <t>// Get the final output directory for cooked data</t>
-  </si>
-  <si>
-    <t>DirectoryReference CookOutputDir;</t>
-  </si>
-  <si>
-    <t>if (!String.IsNullOrEmpty(Params.CookOutputDir))</t>
-  </si>
-  <si>
-    <t>CookOutputDir = DirectoryReference.Combine(new DirectoryReference(Params.CookOutputDir), SC.CookPlatform);</t>
-  </si>
-  <si>
-    <t>else if (Params.CookInEditor)</t>
-  </si>
-  <si>
-    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "EditorCooked", SC.CookPlatform);</t>
-  </si>
-  <si>
-    <t>CookOutputDir = DirectoryReference.Combine(SC.ProjectRoot, "Saved", "Cooked", SC.CookPlatform);</t>
-  </si>
-  <si>
-    <t>if (DirectoryReference.Exists(CookOutputDir))</t>
-  </si>
-  <si>
-    <t>List&lt;FileReference&gt; CookedFiles = DirectoryReference.EnumerateFiles(CookOutputDir, "*.metallib", SearchOption.AllDirectories).ToList();</t>
-  </si>
-  <si>
-    <t>foreach (FileReference CookedFile in CookedFiles)</t>
-  </si>
-  <si>
-    <t>SC.StageFile(StagedFileType.NonUFS, CookedFile, new StagedFileReference(CookedFile.MakeRelativeTo(CookOutputDir)));</t>
-  </si>
-  <si>
-    <t>收集所有的metallib文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非UFS文件集中处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public override void GetFilesToDeployOrStage(ProjectParams Params, DeploymentContext SC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (uint32 i = 0; i &lt; Header.NumLibraries; i++)</t>
+  </si>
+  <si>
+    <t>FString MetalLibraryFilePath = (FilePath / LibName) + FString::Printf(TEXT(".%d.metallib"), i);</t>
+  </si>
+  <si>
+    <t>MetalLibraryFilePath = FPaths::ConvertRelativePathToFull(MetalLibraryFilePath);</t>
+  </si>
+  <si>
+    <t>MetalLibraryFilePath = IFileManager::Get().ConvertToAbsolutePathForExternalAppForRead(*MetalLibraryFilePath);</t>
+  </si>
+  <si>
+    <t>METAL_GPUPROFILE(FScopedMetalCPUStats CPUStat(FString::Printf(TEXT("NewLibraryFile: %s"), *MetalLibraryFilePath)));</t>
+  </si>
+  <si>
+    <t>NSError* Error;</t>
+  </si>
+  <si>
+    <t>mtlpp::Library Library = [GetMetalDeviceContext().GetDevice() newLibraryWithFile:MetalLibraryFilePath.GetNSString() error:&amp;Error];</t>
+  </si>
+  <si>
+    <t>if (Library != nil)</t>
+  </si>
+  <si>
+    <t>Libraries.Add(Library);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogMetal, Display, TEXT("Failed to create library: %s"), *FString(Error.description));</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>Result = new FMetalShaderLibrary(Platform, Name, BinaryShaderFile, Header, SerializedShaders, ShaderCode, Libraries);</t>
+  </si>
+  <si>
+    <t>FMetalShaderLibrary::LoadedShaderLibraryMap.Add(BinaryShaderFile, Result.GetReference());</t>
+  </si>
+  <si>
+    <t>ns::AutoReleasedError AError;</t>
+  </si>
+  <si>
+    <t>void* Buffer = FMemory::Malloc( BufferSize );</t>
+  </si>
+  <si>
+    <t>FMemory::Memcpy( Buffer, InShaderCode.GetData() + CodeOffset, BufferSize );</t>
+  </si>
+  <si>
+    <t>dispatch_data_t GCDBuffer = dispatch_data_create(Buffer, BufferSize, dispatch_get_main_queue(), ^(void) { FMemory::Free(Buffer); } );</t>
   </si>
 </sst>
 </file>
@@ -984,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D988122D-E9DF-46B7-9D16-8184EFAF6ACE}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,12 +1106,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -1067,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -1081,9 +1133,109 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1095,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B59BC9-BFEA-4CED-AD70-5026EE47AA65}">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -1103,87 +1255,87 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -1193,12 +1345,12 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -1208,17 +1360,17 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
@@ -1233,82 +1385,82 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1318,37 +1470,37 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:18" x14ac:dyDescent="0.2">
@@ -1358,20 +1510,20 @@
     </row>
     <row r="66" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.2">
@@ -1381,7 +1533,7 @@
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="3:18" x14ac:dyDescent="0.2">
@@ -1391,12 +1543,12 @@
     </row>
     <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.2">
@@ -1406,7 +1558,7 @@
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="3:18" x14ac:dyDescent="0.2">
@@ -1416,7 +1568,7 @@
     </row>
     <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="3:18" x14ac:dyDescent="0.2">
@@ -1426,12 +1578,12 @@
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.2">
@@ -1450,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B7D6F-D48E-440C-9D4E-29AAEA362A67}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1458,12 +1610,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,22 +1625,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,7 +1650,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,7 +1660,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1518,7 +1670,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,7 +1680,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1538,7 +1690,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -1548,7 +1700,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -1558,12 +1710,12 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -1573,7 +1725,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -1593,17 +1745,17 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,17 +1765,17 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1633,7 +1785,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,7 +1795,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,7 +1805,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1815,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1825,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -1683,7 +1835,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -1693,12 +1845,12 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -1708,7 +1860,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -1718,17 +1870,17 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -1738,22 +1890,22 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -1763,7 +1915,7 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1774,12 +1926,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695943A-F989-4D6C-A788-0ACD8BE8448A}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_ios_metallib.xlsx
+++ b/doc/ue_ios_metallib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B19FC-CC9A-4D42-B219-8D4E54131D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77031D81-2FD2-41DD-B273-EED8A6B0EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="COOK" sheetId="3" r:id="rId3"/>
     <sheet name="IOS打包拷贝" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="深坑" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="149">
   <si>
     <t>void FShaderCodeLibrary::InitForRuntime(EShaderPlatform ShaderPlatform)</t>
   </si>
@@ -503,6 +504,10 @@
   </si>
   <si>
     <t>dispatch_data_t GCDBuffer = dispatch_data_create(Buffer, BufferSize, dispatch_get_main_queue(), ^(void) { FMemory::Free(Buffer); } );</t>
+  </si>
+  <si>
+    <t>目前该方案无法优化，深坑啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1928,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2695943A-F989-4D6C-A788-0ACD8BE8448A}">
   <dimension ref="B5:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1958,4 +1963,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460DCF9E-312A-4483-BC92-FD5A6C924189}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>